--- a/pred_ohlcv/54_21/2020-01-15 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8159514.637200003</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-8000830.624900003</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8013039.800800003</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-8034574.822900003</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8603847.842600003</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8692057.404900003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9816798.114400001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-9813300.902000001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-19116153.65319116</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19514848.25959115</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6684532.7506</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6583344.598</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6574541.2881</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6664823.282000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-7222698.023000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7221316.879700001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-7221686.879700001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-7351115.725400002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7352000.747300002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-7342986.577300002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-7662986.577300002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7793282.406700002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-7656290.348400002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-7884232.120700003</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8159514.637200003</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8001012.424900003</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-8000830.624900003</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8013039.800800003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-8034574.822900003</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8033168.075800003</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8321043.353200003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-8604047.842600003</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8603847.842600003</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8692239.222900003</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9808619.676800001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9820671.267600002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9813832.576600002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9816798.114400001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9814104.219800001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-9813300.902000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9812600.902000001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9816976.6302</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9876976.634200001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9928174.664100001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9927257.0327</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-9967639.3971</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10015897.531</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-10310565.4491</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-10313162.8412</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-19116153.65319116</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-19114153.65319116</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19499665.52659116</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19494665.52659116</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19494465.52659116</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19519848.25959115</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
